--- a/data/trans_bre/P40_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P40_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.974072881564549</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.037458825273088</v>
+        <v>8.037458825273077</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2534359120250503</v>
@@ -649,7 +649,7 @@
         <v>0.3604388533592879</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.323001341699683</v>
+        <v>0.3230013416996825</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.126470360616441</v>
+        <v>-2.871134131670354</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.621654840127228</v>
+        <v>9.263744277388216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9893807306914044</v>
+        <v>1.451644550588854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.652340779479931</v>
+        <v>2.603694182592468</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1643101045614001</v>
+        <v>-0.1545202870439903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3775260782136873</v>
+        <v>0.3698284126633597</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02992147377112827</v>
+        <v>0.03440128602778426</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.05110932944242699</v>
+        <v>0.09633583679765913</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.88368940392264</v>
+        <v>11.40433204377907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.64737001819088</v>
+        <v>24.89191848233505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.45228337205945</v>
+        <v>15.98526647343627</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.24868604231544</v>
+        <v>14.98549083863096</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8326701860392224</v>
+        <v>0.8153516813499211</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.345095858165507</v>
+        <v>1.342871538965724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7782510834855463</v>
+        <v>0.7760681314058797</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6520813238294959</v>
+        <v>0.712430996826855</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>11.02314834489447</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.068025245557385</v>
+        <v>6.068025245557387</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8895744309774064</v>
@@ -749,7 +749,7 @@
         <v>0.9464666512600722</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3788804356436755</v>
+        <v>0.3788804356436756</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.311602165176309</v>
+        <v>8.205224753812095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.927751144112289</v>
+        <v>9.238697761707188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.084153661238114</v>
+        <v>6.216980156030839</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.250537972588161</v>
+        <v>1.477893157212305</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4690957162740822</v>
+        <v>0.4500054274546829</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4516028999828474</v>
+        <v>0.472228157772881</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.446328634683472</v>
+        <v>0.4569410961658134</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06353315609697066</v>
+        <v>0.06804388492324566</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.64162588660853</v>
+        <v>18.77953442609102</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.95744315451024</v>
+        <v>19.67219878993144</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.31862161978197</v>
+        <v>15.80827844479869</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.53950127350963</v>
+        <v>10.86797787337617</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.45681161692524</v>
+        <v>1.462502985322304</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.498222539532186</v>
+        <v>1.486869923170716</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.607791334938627</v>
+        <v>1.624925971993106</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8045687300814975</v>
+        <v>0.8122196691906852</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.125196918966958</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.639182826301189</v>
+        <v>5.639182826301195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8781464435841614</v>
@@ -849,7 +849,7 @@
         <v>0.2487895253986723</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.24315960598488</v>
+        <v>0.2431596059848802</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.401849498454816</v>
+        <v>7.371491944078485</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7226332999743886</v>
+        <v>1.875051915670618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.678044268409216</v>
+        <v>-1.431081937996604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1032895198559617</v>
+        <v>0.3088899375282949</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3577068188561373</v>
+        <v>0.3741351971139722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03440680463930608</v>
+        <v>0.0849572670706267</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1335409473628814</v>
+        <v>-0.07888316058581089</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.004348614325160774</v>
+        <v>0.01027100405688874</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.24642052834501</v>
+        <v>20.3224852644219</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.04086070711535</v>
+        <v>15.04648210457211</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.13752737065511</v>
+        <v>10.68996141705704</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.08285688728084</v>
+        <v>11.62482030056499</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.54268214010078</v>
+        <v>1.601723847798412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9389509683562255</v>
+        <v>1.044765313281351</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7156653087764104</v>
+        <v>0.7756201515428068</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5545622774852134</v>
+        <v>0.5742479927521319</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>14.19847766169413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.045158374116896</v>
+        <v>9.045158374116905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.082391087373542</v>
@@ -949,7 +949,7 @@
         <v>0.7825606025708096</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4562122532661771</v>
+        <v>0.4562122532661776</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.16768618481097</v>
+        <v>8.30189712869343</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.088949016697857</v>
+        <v>8.497234659831921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.280524466765067</v>
+        <v>8.370312356202417</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.559001296942788</v>
+        <v>2.926517634312468</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5226698391070216</v>
+        <v>0.5150356751580629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4171050347279177</v>
+        <v>0.3737997376816818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3506391687486473</v>
+        <v>0.4051749996942673</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.094843322682806</v>
+        <v>0.123965783687761</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>19.58129910499284</v>
+        <v>19.17819704243689</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.63066076264685</v>
+        <v>21.62771885499093</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20.51132273732008</v>
+        <v>20.71841426787497</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.20665882523289</v>
+        <v>15.1145690243948</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.941934050426053</v>
+        <v>1.867312467298168</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.418133439455805</v>
+        <v>1.440477690309407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.348577852552943</v>
+        <v>1.401849033611228</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9411083063930789</v>
+        <v>0.9280288045868943</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>11.5071763326919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.786029896791629</v>
+        <v>8.786029896791621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5629380380161331</v>
@@ -1049,7 +1049,7 @@
         <v>0.7295960089874768</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6820798796030692</v>
+        <v>0.6820798796030687</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.927170378798287</v>
+        <v>4.444759302324087</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.522287367869248</v>
+        <v>3.765602809509135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.42976303998815</v>
+        <v>3.54566715545527</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.219012902075814</v>
+        <v>3.600960369401805</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1283158594248739</v>
+        <v>0.1538556560130008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1928354755948476</v>
+        <v>0.1564153320785022</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.162571015878907</v>
+        <v>0.1714415214154937</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1942050608866318</v>
+        <v>0.2210636446695733</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.94581170610394</v>
+        <v>23.74937437088349</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.40154384370031</v>
+        <v>21.28344670452447</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.68121993604241</v>
+        <v>19.54722794677867</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.65621823355289</v>
+        <v>14.00783817133192</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.114040894448126</v>
+        <v>1.191136920159349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.52070385868936</v>
+        <v>1.607571137750117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.50413629101357</v>
+        <v>1.650249063053548</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.361165837500789</v>
+        <v>1.385368985269613</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.849992707103224</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11.26318179427578</v>
+        <v>11.26318179427577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.446353149626569</v>
@@ -1149,7 +1149,7 @@
         <v>0.4492640257278546</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.5082972902520771</v>
+        <v>0.5082972902520769</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>13.61451755479601</v>
+        <v>13.47832389008411</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9008901584029407</v>
+        <v>1.065270870417832</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.475700494451412</v>
+        <v>1.811725051110449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.312077644853222</v>
+        <v>5.971599134960814</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7502715809676404</v>
+        <v>0.753583916702489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03863047811691039</v>
+        <v>0.02629397238772512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06982486119636315</v>
+        <v>0.05683991686014163</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2070252076201736</v>
+        <v>0.229603509457973</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>27.39514898324858</v>
+        <v>28.28634738664875</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.87049769414491</v>
+        <v>15.36270157545599</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.99784380358444</v>
+        <v>16.52247254043994</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.88704741454887</v>
+        <v>17.24542894456581</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.378681575080503</v>
+        <v>2.60611434000361</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.012400698431988</v>
+        <v>0.9771131931181845</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.000412365855068</v>
+        <v>1.001113698381366</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8688032274375712</v>
+        <v>0.87456716863809</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.574874771694516</v>
+        <v>9.602460184735166</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.172420656657535</v>
+        <v>4.439661482457264</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.106708584139713</v>
+        <v>6.003619982376981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.570874629984743</v>
+        <v>6.624603645448615</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5865881625254734</v>
+        <v>0.5724222795740591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2266781231359337</v>
+        <v>0.2497745187733699</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3467537048162573</v>
+        <v>0.3541550449990264</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3553406018279737</v>
+        <v>0.3684711295334162</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.79366619045427</v>
+        <v>18.40217177920697</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.99651581801677</v>
+        <v>13.61175168658605</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.13514832946088</v>
+        <v>15.39002498284955</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.69656046082986</v>
+        <v>15.01093611135345</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.561359502436901</v>
+        <v>1.485963587611191</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.048063810427472</v>
+        <v>1.034786519971893</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.133154657467065</v>
+        <v>1.175087494586476</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.0601664906281</v>
+        <v>1.107073745314067</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.4558836916959059</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.5546236103564488</v>
+        <v>0.5546236103564491</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.929317104188865</v>
+        <v>4.616183535708181</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2100222844831822</v>
+        <v>0.08236246049735749</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.236254487526921</v>
+        <v>2.181928373931481</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.165925634987876</v>
+        <v>6.352208809538444</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.252801506759973</v>
+        <v>0.2168571777945242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004152495507220689</v>
+        <v>0.004077833027137432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1432102101924779</v>
+        <v>0.154477947666032</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2999746457484931</v>
+        <v>0.3105679910284502</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.68106032273418</v>
+        <v>13.01936630575861</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.090850581694742</v>
+        <v>7.88817059350161</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.00000450833524</v>
+        <v>9.927399030632294</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13.52806705298772</v>
+        <v>13.98660146751643</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.862538618189483</v>
+        <v>0.8392099484215064</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6390720088577381</v>
+        <v>0.6447812296456885</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.854205766673517</v>
+        <v>0.8727948705990909</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8155780360013509</v>
+        <v>0.8491877787607528</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.51344914976781</v>
+        <v>10.62654794118976</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.050062082913815</v>
+        <v>8.061638918200755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.2605886481621</v>
+        <v>7.1969612165009</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.096458747758574</v>
+        <v>7.057252101929487</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.628174648892467</v>
+        <v>0.628660965549703</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4440916586508429</v>
+        <v>0.4550161187463503</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4341340441988724</v>
+        <v>0.4239006580093231</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3621453837001531</v>
+        <v>0.3551544491526558</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.66384889459873</v>
+        <v>14.44960736317985</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.92880293834195</v>
+        <v>11.99914445378493</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.20587493934188</v>
+        <v>11.05235831915748</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.58738828538478</v>
+        <v>10.57631871169433</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9782984068573292</v>
+        <v>0.9553593024602133</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7498946601834197</v>
+        <v>0.7552692932450199</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7606596611604233</v>
+        <v>0.7366231373138036</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6059027123474914</v>
+        <v>0.5955618227893958</v>
       </c>
     </row>
     <row r="31">
